--- a/dell/passed/C1WQ2S2_config_report_conf_passed_report.xlsx
+++ b/dell/passed/C1WQ2S2_config_report_conf_passed_report.xlsx
@@ -42,19 +42,6 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">"Not Redundant" not equal golden setting "Input Power Redundant" </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">"Blinking" not equal golden setting "Off" </t>
         </r>
       </text>
     </comment>
@@ -5571,8 +5558,8 @@
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>19</v>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
